--- a/data/trans_bre/P6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P6-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>28,21%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 7,29</t>
+          <t>-4,84; 6,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,22</t>
+          <t>-6,53; 7,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 7,52</t>
+          <t>-4,92; 10,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 8,91</t>
+          <t>-4,03; 13,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 136,89</t>
+          <t>-44,09; 133,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 83,2</t>
+          <t>-45,21; 101,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 73,11</t>
+          <t>-27,94; 107,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 80,54</t>
+          <t>-19,32; 114,58</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>80,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>70,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>77,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>31,26%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 7,03</t>
+          <t>-1,18; 9,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 5,29</t>
+          <t>-1,5; 9,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 11,3</t>
+          <t>0,11; 14,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 12,78</t>
+          <t>-4,05; 13,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 216,55</t>
+          <t>-20,66; 461,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,58; 96,14</t>
+          <t>-23,39; 363,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 148,49</t>
+          <t>-4,43; 297,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 117,06</t>
+          <t>-24,27; 142,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,23%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,13%</t>
+          <t>35,93%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 8,57</t>
+          <t>-9,84; 12,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 8,45</t>
+          <t>-11,39; 11,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 12,72</t>
+          <t>-21,79; 17,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 15,9</t>
+          <t>-19,28; 28,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-74,83; 178,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 173,61</t>
+          <t>-81,27; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,55; 125,16</t>
+          <t>-59,63; 541,48</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>30,14%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,01</t>
+          <t>-1,53; 6,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,96</t>
+          <t>-2,28; 6,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,74</t>
+          <t>-1,16; 9,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 7,62</t>
+          <t>-1,83; 11,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 95,64</t>
+          <t>-19,71; 158,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 48,16</t>
+          <t>-23,69; 112,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 62,6</t>
+          <t>-8,17; 107,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 57,59</t>
+          <t>-9,5; 95,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P6-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>20,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,16%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>18,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>28,21%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.568108118822578</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4926983737666313</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.62816973938128</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.914695506441598</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.201679436020539</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.0430851247007589</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1112317953121023</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2404725958961044</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 6,67</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; 7,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 10,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,03; 13,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-44,09; 133,92</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-45,21; 101,55</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-27,94; 107,3</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-19,32; 114,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.835626352686394</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.581845473444177</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.142507224965206</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.768613245654424</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4408696490053721</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5074136537820972</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3135568449967375</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2183501839976304</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.669292040960981</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.261952740337337</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.02375477218559</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.05975510315861</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.339230267387679</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.877605110345435</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.010359912538857</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.14317973704511</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,73</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>80,42%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>70,03%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>77,87%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>31,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 9,12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 9,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 14,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,05; 13,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-20,66; 461,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-23,39; 363,21</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 297,63</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-24,27; 142,92</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.73066747742457</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.746681231628573</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.91908490583195</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.195367299606274</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.8042362671477276</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6276487834232466</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.8030498586203637</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3981853687900587</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>62,95%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>45,9%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,66%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>35,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.178265078100195</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.692378270510332</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.01358649804924121</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.263985030073675</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2065974732274568</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3184426278025143</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.0588996782365577</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.188392488038978</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 12,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,39; 11,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,79; 17,36</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,28; 28,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-81,27; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-59,63; 541,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.121776094545513</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.31194075105738</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.05156417687017</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.50546440632859</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.610641914661385</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.115792101601238</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.045855992967543</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.685472056988495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>42,67%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>28,71%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>35,75%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>30,14%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.384789291105761</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.777169693654763</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.13518088000783</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.653556917420515</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.629546672762426</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4832101441958051</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.08386210783267085</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4385659038793612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 6,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 6,41</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 9,95</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 11,24</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-19,71; 158,34</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-23,69; 112,01</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 107,56</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 95,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.836650907901298</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.04715996140586</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-20.95589014036976</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-17.33407136234295</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8159339874928674</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5895621468812037</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.09028098235019</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.4757527070412</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.04718077640714</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>29.54570554597999</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>5.648857036968735</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.586786837312355</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.547169335611907</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.865195984046037</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.862572972361534</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4267178046615244</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1852199557127679</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3235362045223796</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3232454407899769</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.530334756527024</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.542183821563663</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.637919387471957</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.474940762132966</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1971097924102273</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3335482803707677</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.116511594801922</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.08506803387398232</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.388495655541219</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.597858450584226</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.473506776276972</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.25026391268388</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.583413400961534</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.9027786540989948</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.015727356831575</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9505624930741712</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1015,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
